--- a/doc/manyc/csv/商品.xlsx
+++ b/doc/manyc/csv/商品.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -95,7 +95,7 @@
     <t>GOODS-1LBC23ZE336</t>
   </si>
   <si>
-    <t>有念头-胶片色纸 恋与深空胶片</t>
+    <t>การ์ดฟิล์ม 有念头-胶片色纸 恋与深空胶片</t>
   </si>
   <si>
     <t>有念头</t>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>星栖文创X恋与深空答案之旅镭射票 第一弹</t>
+  </si>
+  <si>
+    <t>การ์ด love and deepspace เรเซอร์ ธีม “เส้นทางแห่งคำตอบ”</t>
   </si>
   <si>
     <t>星栖文创</t>
@@ -938,8 +941,11 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>10445.25</v>
@@ -954,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -962,13 +968,13 @@
         <v>1419</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>8507.25</v>
@@ -983,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -991,13 +997,13 @@
         <v>1418</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>14912.63</v>
@@ -1012,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1020,13 +1026,13 @@
         <v>1417</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>24795.0</v>
@@ -1041,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1049,13 +1055,13 @@
         <v>1416</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>23598.0</v>
@@ -1070,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1078,13 +1084,13 @@
         <v>1415</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>11072.5</v>
@@ -1099,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1107,13 +1113,13 @@
         <v>1414</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>11343.0</v>
@@ -1128,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1136,13 +1142,13 @@
         <v>1413</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>8464.5</v>
@@ -1157,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1165,13 +1171,13 @@
         <v>1354</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>13680.0</v>
@@ -1186,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1194,13 +1200,13 @@
         <v>1353</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>12960.0</v>
@@ -1215,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1223,13 +1229,13 @@
         <v>1352</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>22686.0</v>
@@ -1244,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1252,13 +1258,13 @@
         <v>1351</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>9120.0</v>
@@ -1273,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1281,13 +1287,13 @@
         <v>1350</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <v>22800.0</v>
@@ -1302,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1310,13 +1316,13 @@
         <v>1349</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20">
         <v>22800.0</v>
@@ -1331,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1339,13 +1345,13 @@
         <v>1348</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>22800.0</v>
@@ -1360,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1368,13 +1374,13 @@
         <v>1347</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>11400.0</v>
@@ -1389,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1397,13 +1403,13 @@
         <v>1346</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>23598.0</v>
@@ -1418,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1426,13 +1432,13 @@
         <v>1345</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>44460.0</v>
@@ -1447,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1455,13 +1461,13 @@
         <v>1344</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>22686.0</v>
@@ -1476,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1484,13 +1490,13 @@
         <v>1343</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>30780.0</v>
@@ -1505,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1513,16 +1519,16 @@
         <v>1323</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27">
         <v>20736.0</v>
@@ -1537,7 +1543,7 @@
         <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1545,16 +1551,16 @@
         <v>1322</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28">
         <v>16038.0</v>
@@ -1569,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1577,16 +1583,16 @@
         <v>1321</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F29">
         <v>52974.0</v>
@@ -1601,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1609,16 +1615,16 @@
         <v>1320</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30">
         <v>12960.0</v>
@@ -1633,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1641,16 +1647,16 @@
         <v>1319</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31">
         <v>6727.5</v>
@@ -1665,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1673,16 +1679,16 @@
         <v>1318</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32">
         <v>21890.0</v>
@@ -1697,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
